--- a/biology/Zoologie/Aspidoscelis_costata/Aspidoscelis_costata.xlsx
+++ b/biology/Zoologie/Aspidoscelis_costata/Aspidoscelis_costata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis costata est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis costata est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Aspidoscelis costatus (Cope, 1878)[2].
-Aspidoscelis costatus a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Aspidoscelis costatus (Cope, 1878).
+Aspidoscelis costatus a pour synonymes :
 Aspidoscelis alpinus (Maslin, Walker &amp; Martin, 1965)
 Cnemidophorus alpinus Maslin &amp; Walker, 1965
 Cnemidophorus sacki subsp. barrancorum Zweifel, 1959
@@ -553,9 +569,43 @@
 Cnemidophorus sacki subsp. huico Zweifel, 1959
 Cnemidophorus sacki subsp. mazatlanensis Zweifel, 1959
 Cnemidophorus sacki subsp. nigrigularis Zweifel, 1959
-Cnemidophorus sacki subsp. zweifeli Duellman, 1960
-Sous-espèces
-Selon The Reptile Database   (22 janvier 2014)[3] :
+Cnemidophorus sacki subsp. zweifeli Duellman, 1960</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aspidoscelis_costata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aspidoscelis_costata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 janvier 2014) :
 Aspidoscelis costata barrancorum (Zweifel, 1959)
 Aspidoscelis costata costatus (Cope, 1878)
 Aspidoscelis costata griseocephalus (Zweifel, 1959)
@@ -567,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Aspidoscelis_costata</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aspidoscelis_costata</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cope, 1878 "1877" : Tenth contribution to the herpetology of tropical America. Proceedings of the American Philosophical Society, vol. 17, p. 85–98 (texte intégral).
 Duellman, 1960 : A new subspecies of lizard, Cnemidophorus sacki, from Michoacan, Mexico. University of Kansas publications, Museum of Natural History, vol. 10, no 9, p. 587-598 (texte intégral).
